--- a/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\报表\烧结\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="13500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="4" r:id="rId1"/>
@@ -22,8 +17,9 @@
     <sheet name="_main2_day_4hour" sheetId="11" r:id="rId8"/>
     <sheet name="_main3_day_4hour" sheetId="13" r:id="rId9"/>
     <sheet name="_dictionary" sheetId="12" r:id="rId10"/>
+    <sheet name="_metadata" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -211,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +251,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -472,9 +475,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -566,9 +566,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -578,19 +575,90 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -609,17 +677,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,65 +686,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1762,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1784,327 +1787,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="72">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="38">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="39"/>
+      <c r="J3" s="71">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="37"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:26" s="7" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="14" t="str">
         <f>IF(_main1_day_4hour!A2="","",_main1_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="14" t="str">
         <f>IF(_main1_day_4hour!B2="","",_main1_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="15" t="str">
+      <c r="E6" s="14" t="str">
         <f>IF(_main1_day_4hour!C2="","",_main1_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="14" t="str">
         <f>IF(_main1_day_4hour!D2="","",_main1_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="14" t="str">
         <f>IF(_main1_day_4hour!E2="","",_main1_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="15" t="str">
+      <c r="H6" s="14" t="str">
         <f>IF(_main1_day_4hour!F2="","",_main1_day_4hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="14" t="str">
         <f>IF(_main1_day_4hour!G2="","",_main1_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H2="","",_main1_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I2="","",_main1_day_4hour!I2)</f>
         <v/>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
     </row>
     <row r="7" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="16" t="str">
         <f>IF(_main1_day_4hour!A3="","",_main1_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_main1_day_4hour!B3="","",_main1_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="16" t="str">
         <f>IF(_main2_day_4hour!C3="","",_main2_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="16" t="str">
         <f>IF(_main1_day_4hour!D3="","",_main1_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="17" t="str">
         <f>IF(_main2_day_4hour!E3="","",_main2_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="H7" s="17" t="str">
         <f>IF(_main2_day_4hour!F3="","",_main2_day_4hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="17" t="str">
         <f>IF(_main1_day_4hour!G3="","",_main1_day_4hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="21" t="str">
         <f>IF(_main1_day_4hour!H3="","",_main1_day_4hour!H3)</f>
         <v/>
       </c>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="21" t="str">
         <f>IF(_main1_day_4hour!I3="","",_main1_day_4hour!I3)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
     </row>
     <row r="8" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="19" t="str">
         <f>IF(_main1_day_4hour!A4="","",_main1_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B4="","",_main1_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!C2="","",_main2_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
+      <c r="F8" s="21" t="str">
         <f>IF(_main1_day_4hour!D4="","",_main1_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!E2="","",_main2_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!F2="","",_main2_day_4hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!G2="","",_main2_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="21" t="str">
         <f>IF(_main2_day_4hour!H2="","",_main2_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="21" t="str">
         <f>IF(_main2_day_4hour!I2="","",_main2_day_4hour!I2)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
     </row>
     <row r="9" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A5="","",_main1_day_4hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B5="","",_main1_day_4hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C5="","",_main1_day_4hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D5="","",_main1_day_4hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E5="","",_main1_day_4hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F5="","",_main1_day_4hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G5="","",_main1_day_4hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H5="","",_main1_day_4hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I5="","",_main1_day_4hour!I5)</f>
         <v/>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
     </row>
     <row r="10" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
     </row>
     <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -2126,367 +2131,372 @@
       <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
     </row>
     <row r="13" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A2="","",_main3_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B2="","",_main3_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C2="","",_main3_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D2="","",_main3_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E2="","",_main3_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
     </row>
     <row r="14" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A3="","",_main3_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B3="","",_main3_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C3="","",_main3_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D3="","",_main3_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E3="","",_main3_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A4="","",_main3_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B4="","",_main3_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C4="","",_main3_day_4hour!C4)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D4="","",_main3_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E4="","",_main3_day_4hour!E4)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:26" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="46" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
     </row>
     <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
     </row>
     <row r="20" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
     </row>
     <row r="22" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
     </row>
     <row r="23" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
     </row>
     <row r="24" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
     </row>
     <row r="25" spans="1:26" s="7" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
     </row>
     <row r="26" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="60" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
     </row>
     <row r="27" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
     </row>
     <row r="29" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -2497,11 +2507,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -2542,12 +2547,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2568,327 +2586,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="71">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="38">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="39"/>
+      <c r="J3" s="71">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="37"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:26" s="7" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="14" t="str">
         <f>IF(_main1_day_4hour!A6="","",_main1_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="14" t="str">
         <f>IF(_main1_day_4hour!B6="","",_main1_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E6" s="15" t="str">
+      <c r="E6" s="14" t="str">
         <f>IF(_main1_day_4hour!C6="","",_main1_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="14" t="str">
         <f>IF(_main1_day_4hour!D6="","",_main1_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="14" t="str">
         <f>IF(_main1_day_4hour!E6="","",_main1_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H6" s="15" t="str">
+      <c r="H6" s="14" t="str">
         <f>IF(_main1_day_4hour!F6="","",_main1_day_4hour!F6)</f>
         <v/>
       </c>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="14" t="str">
         <f>IF(_main1_day_4hour!G6="","",_main1_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H6="","",_main1_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I6="","",_main1_day_4hour!I6)</f>
         <v/>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
     </row>
     <row r="7" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="16" t="str">
         <f>IF(_main1_day_4hour!A7="","",_main1_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_main1_day_4hour!B7="","",_main1_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="16" t="str">
         <f>IF(_main1_day_4hour!C7="","",_main1_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="16" t="str">
         <f>IF(_main1_day_4hour!D7="","",_main1_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="17" t="str">
         <f>IF(_main1_day_4hour!E7="","",_main1_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="H7" s="17" t="str">
         <f>IF(_main1_day_4hour!F7="","",_main1_day_4hour!F7)</f>
         <v/>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="17" t="str">
         <f>IF(_main1_day_4hour!G7="","",_main1_day_4hour!G7)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="21" t="str">
         <f>IF(_main1_day_4hour!H7="","",_main1_day_4hour!H7)</f>
         <v/>
       </c>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="21" t="str">
         <f>IF(_main1_day_4hour!I7="","",_main1_day_4hour!I7)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
     </row>
     <row r="8" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="19" t="str">
         <f>IF(_main1_day_4hour!A8="","",_main1_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B8="","",_main1_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!C6="","",_main2_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
+      <c r="F8" s="21" t="str">
         <f>IF(_main1_day_4hour!D8="","",_main1_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!E6="","",_main2_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!F6="","",_main2_day_4hour!F6)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!G6="","",_main2_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="21" t="str">
         <f>IF(_main2_day_4hour!H6="","",_main2_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="21" t="str">
         <f>IF(_main2_day_4hour!I6="","",_main2_day_4hour!I6)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
     </row>
     <row r="9" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A9="","",_main1_day_4hour!A9)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B9="","",_main1_day_4hour!B9)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C9="","",_main1_day_4hour!C9)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D9="","",_main1_day_4hour!D9)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E9="","",_main1_day_4hour!E9)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F9="","",_main1_day_4hour!F9)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G9="","",_main1_day_4hour!G9)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H9="","",_main1_day_4hour!H9)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I9="","",_main1_day_4hour!I9)</f>
         <v/>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
     </row>
     <row r="10" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
     </row>
     <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -2910,367 +2930,372 @@
       <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
     </row>
     <row r="13" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A6="","",_main3_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B6="","",_main3_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C6="","",_main3_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D6="","",_main3_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E6="","",_main3_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
     </row>
     <row r="14" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A7="","",_main3_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B7="","",_main3_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C7="","",_main3_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D7="","",_main3_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E7="","",_main3_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A8="","",_main3_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B8="","",_main3_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C8="","",_main3_day_4hour!C8)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D8="","",_main3_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E8="","",_main3_day_4hour!E8)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:26" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="46" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
     </row>
     <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
     </row>
     <row r="20" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
     </row>
     <row r="22" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
     </row>
     <row r="23" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
     </row>
     <row r="24" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
     </row>
     <row r="25" spans="1:26" s="7" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
     </row>
     <row r="26" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="60" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
     </row>
     <row r="27" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
     </row>
     <row r="29" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -3281,11 +3306,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -3306,7 +3326,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3327,327 +3347,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="71">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="38">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="39"/>
+      <c r="J3" s="71">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="37"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:26" s="7" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="14" t="str">
         <f>IF(_main1_day_4hour!A10="","",_main1_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="14" t="str">
         <f>IF(_main1_day_4hour!B10="","",_main1_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E6" s="15" t="str">
+      <c r="E6" s="14" t="str">
         <f>IF(_main1_day_4hour!C10="","",_main1_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="14" t="str">
         <f>IF(_main1_day_4hour!D10="","",_main1_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="14" t="str">
         <f>IF(_main1_day_4hour!E10="","",_main1_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H6" s="15" t="str">
+      <c r="H6" s="14" t="str">
         <f>IF(_main1_day_4hour!F10="","",_main1_day_4hour!F10)</f>
         <v/>
       </c>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="14" t="str">
         <f>IF(_main1_day_4hour!G10="","",_main1_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H10="","",_main1_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I10="","",_main1_day_4hour!I10)</f>
         <v/>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
     </row>
     <row r="7" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="16" t="str">
         <f>IF(_main1_day_4hour!A11="","",_main1_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_main1_day_4hour!B11="","",_main1_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="16" t="str">
         <f>IF(_main1_day_4hour!C11="","",_main1_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="16" t="str">
         <f>IF(_main1_day_4hour!D11="","",_main1_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="17" t="str">
         <f>IF(_main1_day_4hour!E11="","",_main1_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="H7" s="17" t="str">
         <f>IF(_main1_day_4hour!F11="","",_main1_day_4hour!F11)</f>
         <v/>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="17" t="str">
         <f>IF(_main1_day_4hour!G11="","",_main1_day_4hour!G11)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="21" t="str">
         <f>IF(_main1_day_4hour!H11="","",_main1_day_4hour!H11)</f>
         <v/>
       </c>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="21" t="str">
         <f>IF(_main1_day_4hour!I11="","",_main1_day_4hour!I11)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
     </row>
     <row r="8" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="19" t="str">
         <f>IF(_main1_day_4hour!A12="","",_main1_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B12="","",_main1_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!C10="","",_main2_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
+      <c r="F8" s="21" t="str">
         <f>IF(_main1_day_4hour!D12="","",_main1_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!E10="","",_main2_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!F10="","",_main2_day_4hour!F10)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!G10="","",_main2_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="21" t="str">
         <f>IF(_main2_day_4hour!H10="","",_main2_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="21" t="str">
         <f>IF(_main2_day_4hour!I10="","",_main2_day_4hour!I10)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
     </row>
     <row r="9" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A13="","",_main1_day_4hour!A13)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B13="","",_main1_day_4hour!B13)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C13="","",_main1_day_4hour!C13)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D13="","",_main1_day_4hour!D13)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E13="","",_main1_day_4hour!E13)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F13="","",_main1_day_4hour!F13)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G13="","",_main1_day_4hour!G13)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H13="","",_main1_day_4hour!H13)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I13="","",_main1_day_4hour!I13)</f>
         <v/>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
     </row>
     <row r="10" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
     </row>
     <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -3669,367 +3691,372 @@
       <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
     </row>
     <row r="13" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A10="","",_main3_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B10="","",_main3_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C10="","",_main3_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D10="","",_main3_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E10="","",_main3_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
     </row>
     <row r="14" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A11="","",_main3_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B11="","",_main3_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C11="","",_main3_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D11="","",_main3_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E11="","",_main3_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A12="","",_main3_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B12="","",_main3_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C12="","",_main3_day_4hour!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D12="","",_main3_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E12="","",_main3_day_4hour!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:26" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="46" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
     </row>
     <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
     </row>
     <row r="20" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
     </row>
     <row r="22" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
     </row>
     <row r="23" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
     </row>
     <row r="24" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
     </row>
     <row r="25" spans="1:26" s="7" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
     </row>
     <row r="26" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="60" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
     </row>
     <row r="27" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
     </row>
     <row r="29" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -4040,11 +4067,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -4065,8 +4087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:K25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4087,327 +4109,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="71">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="38">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="39"/>
+      <c r="J3" s="71">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="37"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:26" s="7" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="14" t="str">
         <f>IF(_main1_day_4hour!A14="","",_main1_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="14" t="str">
         <f>IF(_main1_day_4hour!B14="","",_main1_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E6" s="15" t="str">
+      <c r="E6" s="14" t="str">
         <f>IF(_main1_day_4hour!C14="","",_main1_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="14" t="str">
         <f>IF(_main1_day_4hour!D14="","",_main1_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="14" t="str">
         <f>IF(_main1_day_4hour!E14="","",_main1_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H6" s="15" t="str">
+      <c r="H6" s="14" t="str">
         <f>IF(_main1_day_4hour!F14="","",_main1_day_4hour!F14)</f>
         <v/>
       </c>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="14" t="str">
         <f>IF(_main1_day_4hour!G14="","",_main1_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H14="","",_main1_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I14="","",_main1_day_4hour!I14)</f>
         <v/>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
     </row>
     <row r="7" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="16" t="str">
         <f>IF(_main1_day_4hour!A15="","",_main1_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_main1_day_4hour!B15="","",_main1_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="16" t="str">
         <f>IF(_main1_day_4hour!C15="","",_main1_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="16" t="str">
         <f>IF(_main1_day_4hour!D15="","",_main1_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="17" t="str">
         <f>IF(_main1_day_4hour!E15="","",_main1_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="H7" s="17" t="str">
         <f>IF(_main1_day_4hour!F15="","",_main1_day_4hour!F15)</f>
         <v/>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="17" t="str">
         <f>IF(_main1_day_4hour!G15="","",_main1_day_4hour!G15)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="21" t="str">
         <f>IF(_main1_day_4hour!H15="","",_main1_day_4hour!H15)</f>
         <v/>
       </c>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="21" t="str">
         <f>IF(_main1_day_4hour!I15="","",_main1_day_4hour!I15)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
     </row>
     <row r="8" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="19" t="str">
         <f>IF(_main1_day_4hour!A16="","",_main1_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B16="","",_main1_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!C14="","",_main2_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
+      <c r="F8" s="21" t="str">
         <f>IF(_main1_day_4hour!D16="","",_main1_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!E14="","",_main2_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!F14="","",_main2_day_4hour!F14)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!G14="","",_main2_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="21" t="str">
         <f>IF(_main2_day_4hour!H14="","",_main2_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="21" t="str">
         <f>IF(_main2_day_4hour!I14="","",_main2_day_4hour!I14)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
     </row>
     <row r="9" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A17="","",_main1_day_4hour!A17)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B17="","",_main1_day_4hour!B17)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C17="","",_main1_day_4hour!C17)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D17="","",_main1_day_4hour!D17)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E17="","",_main1_day_4hour!E17)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F17="","",_main1_day_4hour!F17)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G17="","",_main1_day_4hour!G17)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H17="","",_main1_day_4hour!H17)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I17="","",_main1_day_4hour!I17)</f>
         <v/>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
     </row>
     <row r="10" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
     </row>
     <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -4429,367 +4453,372 @@
       <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
     </row>
     <row r="13" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A14="","",_main3_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B14="","",_main3_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C14="","",_main3_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D14="","",_main3_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E14="","",_main3_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
     </row>
     <row r="14" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A15="","",_main3_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B15="","",_main3_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C15="","",_main3_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D15="","",_main3_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E15="","",_main3_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A16="","",_main3_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B16="","",_main3_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C16="","",_main3_day_4hour!C16)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D16="","",_main3_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E16="","",_main3_day_4hour!E16)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:26" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="46" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
     </row>
     <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
     </row>
     <row r="20" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
     </row>
     <row r="22" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
     </row>
     <row r="23" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
     </row>
     <row r="24" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
     </row>
     <row r="25" spans="1:26" s="7" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
     </row>
     <row r="26" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="60" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
     </row>
     <row r="27" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
     </row>
     <row r="29" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -4800,11 +4829,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -4825,7 +4849,7 @@
   <dimension ref="A2:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4846,106 +4870,108 @@
   <sheetData>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="71">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="38">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="39"/>
+      <c r="J3" s="71">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="37"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:26" s="7" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6" spans="1:26" s="8" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3"/>
@@ -4976,232 +5002,232 @@
       <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="14" t="str">
         <f>IF(_main1_day_4hour!A18="","",_main1_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(_main1_day_4hour!B18="","",_main1_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f>IF(_main1_day_4hour!C18="","",_main1_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="14" t="str">
         <f>IF(_main1_day_4hour!D18="","",_main1_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="14" t="str">
         <f>IF(_main1_day_4hour!E18="","",_main1_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="H7" s="14" t="str">
         <f>IF(_main1_day_4hour!F18="","",_main1_day_4hour!F18)</f>
         <v/>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="14" t="str">
         <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J7" s="33" t="str">
+      <c r="J7" s="32" t="str">
         <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K7" s="33" t="str">
+      <c r="K7" s="32" t="str">
         <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
     </row>
     <row r="8" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="16" t="str">
         <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="16" t="str">
         <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="16" t="str">
         <f>IF(_main1_day_4hour!C19="","",_main1_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="16" t="str">
         <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G8" s="18" t="str">
+      <c r="G8" s="17" t="str">
         <f>IF(_main1_day_4hour!E19="","",_main1_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H8" s="18" t="str">
+      <c r="H8" s="17" t="str">
         <f>IF(_main1_day_4hour!F19="","",_main1_day_4hour!F19)</f>
         <v/>
       </c>
-      <c r="I8" s="18" t="str">
+      <c r="I8" s="17" t="str">
         <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="21" t="str">
         <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="21" t="str">
         <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
     </row>
     <row r="9" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G9" s="23" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H9" s="24" t="str">
+      <c r="H9" s="23" t="str">
         <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
         <v/>
       </c>
-      <c r="I9" s="24" t="str">
+      <c r="I9" s="23" t="str">
         <f>IF(_main2_day_4hour!G18="","",_main2_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main2_day_4hour!H18="","",_main2_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main2_day_4hour!I18="","",_main2_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
     </row>
     <row r="10" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="19" t="str">
         <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
         <v/>
       </c>
-      <c r="D10" s="21" t="str">
+      <c r="D10" s="20" t="str">
         <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
         <v/>
       </c>
-      <c r="E10" s="22" t="str">
+      <c r="E10" s="21" t="str">
         <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
         <v/>
       </c>
-      <c r="F10" s="22" t="str">
+      <c r="F10" s="21" t="str">
         <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
         <v/>
       </c>
-      <c r="G10" s="22" t="str">
+      <c r="G10" s="21" t="str">
         <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="20" t="str">
         <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
         <v/>
       </c>
-      <c r="I10" s="21" t="str">
+      <c r="I10" s="20" t="str">
         <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
         <v/>
       </c>
-      <c r="J10" s="22" t="str">
+      <c r="J10" s="21" t="str">
         <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
         <v/>
       </c>
-      <c r="K10" s="22" t="str">
+      <c r="K10" s="21" t="str">
         <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
         <v/>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
     </row>
     <row r="11" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
     </row>
     <row r="13" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
@@ -5223,415 +5249,420 @@
       <c r="G13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="29" t="str">
+      <c r="C15" s="28" t="str">
         <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D15" s="29" t="str">
+      <c r="D15" s="28" t="str">
         <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="28" t="str">
         <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F15" s="29" t="str">
+      <c r="F15" s="28" t="str">
         <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G15" s="29" t="str">
+      <c r="G15" s="28" t="str">
         <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="31" t="str">
+      <c r="C16" s="30" t="str">
         <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D16" s="31" t="str">
+      <c r="D16" s="30" t="str">
         <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="30" t="str">
         <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F16" s="32" t="str">
+      <c r="F16" s="31" t="str">
         <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G16" s="31" t="str">
+      <c r="G16" s="30" t="str">
         <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="20" t="str">
         <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D17" s="21" t="str">
+      <c r="D17" s="20" t="str">
         <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E17" s="21" t="str">
+      <c r="E17" s="20" t="str">
         <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
         <v/>
       </c>
-      <c r="F17" s="22" t="str">
+      <c r="F17" s="21" t="str">
         <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G17" s="22" t="str">
+      <c r="G17" s="21" t="str">
         <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
         <v/>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
     </row>
     <row r="19" spans="1:26" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
     </row>
     <row r="20" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="46" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="54" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
     </row>
     <row r="23" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
     </row>
     <row r="24" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
     </row>
     <row r="25" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
     </row>
     <row r="26" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
     </row>
     <row r="27" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
     </row>
     <row r="29" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="60" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
     </row>
     <row r="30" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
     </row>
     <row r="31" spans="1:26" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
     </row>
     <row r="32" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E6" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="16">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C11:K11"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="G20:K20"/>
@@ -5643,11 +5674,6 @@
     <mergeCell ref="G22:K28"/>
     <mergeCell ref="C29:F30"/>
     <mergeCell ref="H29:K30"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -5667,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5689,327 +5715,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="71">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="38">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="39"/>
+      <c r="J3" s="71">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="37"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
     </row>
     <row r="5" spans="1:26" s="7" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="14" t="str">
         <f>IF(_main1_day_4hour!A22="","",_main1_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="14" t="str">
         <f>IF(_main1_day_4hour!B22="","",_main1_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E6" s="15" t="str">
+      <c r="E6" s="14" t="str">
         <f>IF(_main1_day_4hour!C22="","",_main1_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="14" t="str">
         <f>IF(_main1_day_4hour!D22="","",_main1_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="14" t="str">
         <f>IF(_main1_day_4hour!E22="","",_main1_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H6" s="15" t="str">
+      <c r="H6" s="14" t="str">
         <f>IF(_main1_day_4hour!F22="","",_main1_day_4hour!F22)</f>
         <v/>
       </c>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="14" t="str">
         <f>IF(_main1_day_4hour!G22="","",_main1_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H22="","",_main1_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I22="","",_main1_day_4hour!I22)</f>
         <v/>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
     </row>
     <row r="7" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="16" t="str">
         <f>IF(_main1_day_4hour!A23="","",_main1_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_main1_day_4hour!B23="","",_main1_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="16" t="str">
         <f>IF(_main1_day_4hour!C23="","",_main1_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="16" t="str">
         <f>IF(_main1_day_4hour!D23="","",_main1_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="17" t="str">
         <f>IF(_main1_day_4hour!E23="","",_main1_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="H7" s="17" t="str">
         <f>IF(_main1_day_4hour!F23="","",_main1_day_4hour!F23)</f>
         <v/>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="17" t="str">
         <f>IF(_main1_day_4hour!G23="","",_main1_day_4hour!G23)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="21" t="str">
         <f>IF(_main1_day_4hour!H23="","",_main1_day_4hour!H23)</f>
         <v/>
       </c>
-      <c r="K7" s="22" t="str">
+      <c r="K7" s="21" t="str">
         <f>IF(_main1_day_4hour!I23="","",_main1_day_4hour!I23)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
     </row>
     <row r="8" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="19" t="str">
         <f>IF(_main1_day_4hour!A24="","",_main1_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B24="","",_main1_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
+      <c r="F8" s="21" t="str">
         <f>IF(_main1_day_4hour!D24="","",_main1_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!G22="","",_main2_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="21" t="str">
         <f>IF(_main2_day_4hour!H22="","",_main2_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K8" s="22" t="str">
+      <c r="K8" s="21" t="str">
         <f>IF(_main2_day_4hour!I22="","",_main2_day_4hour!I22)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
     </row>
     <row r="9" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A25="","",_main1_day_4hour!A25)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B25="","",_main1_day_4hour!B25)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C25="","",_main1_day_4hour!C25)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D25="","",_main1_day_4hour!D25)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E25="","",_main1_day_4hour!E25)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F25="","",_main1_day_4hour!F25)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G25="","",_main1_day_4hour!G25)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H25="","",_main1_day_4hour!H25)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I25="","",_main1_day_4hour!I25)</f>
         <v/>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
     </row>
     <row r="10" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
     </row>
     <row r="11" spans="1:26" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -6031,367 +6059,372 @@
       <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
     </row>
     <row r="13" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A22="","",_main3_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B22="","",_main3_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C22="","",_main3_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D22="","",_main3_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E22="","",_main3_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
     </row>
     <row r="14" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A23="","",_main3_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B23="","",_main3_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C23="","",_main3_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D23="","",_main3_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E23="","",_main3_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A24="","",_main3_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B24="","",_main3_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C24="","",_main3_day_4hour!C24)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D24="","",_main3_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E24="","",_main3_day_4hour!E24)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:26" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:26" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="46" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
     </row>
     <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
     </row>
     <row r="20" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
     </row>
     <row r="22" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
     </row>
     <row r="23" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
     </row>
     <row r="24" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
     </row>
     <row r="25" spans="1:26" s="7" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
     </row>
     <row r="26" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="60" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
     </row>
     <row r="27" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
     </row>
     <row r="29" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -6402,11 +6435,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -6418,7 +6446,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>六号烧结机主要工艺参数及实物质量情况</t>
   </si>
@@ -35,7 +35,7 @@
     <t>班次：</t>
   </si>
   <si>
-    <t>白班</t>
+    <t>夜班</t>
   </si>
   <si>
     <t>时间：</t>
@@ -130,26 +130,10 @@
     <t>备注：每间隔4小时发布一次（3、7、11、15、19、23时）。发布在微信烧结-调度联络群，由调度转发厂信息平台。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2点名</t>
-    </r>
+    <t>白班</t>
+  </si>
+  <si>
+    <t>中班</t>
   </si>
   <si>
     <t>ST6_L1R_SIN_DelAmtUse_1m_avg</t>
@@ -179,21 +163,6 @@
     <t>ST6_L1R_SIN_BtpTeN_1m_avg</t>
   </si>
   <si>
-    <t>L2点名</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>MES Mg/Al</t>
-  </si>
-  <si>
-    <t>MES RDI+3.15</t>
-  </si>
-  <si>
-    <t>画面录入</t>
-  </si>
-  <si>
     <t>Mg/Al</t>
   </si>
   <si>
@@ -208,12 +177,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,21 +221,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,9 +236,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,24 +259,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,23 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,15 +312,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,11 +326,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,6 +361,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -424,13 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,13 +405,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,19 +525,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,13 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,127 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,44 +737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,16 +778,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -871,157 +807,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,13 +994,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1205,8 +1168,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1216,38 +1182,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1798,13 +1734,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>445135</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1145540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1822,7 +1758,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="5153025"/>
+          <a:off x="3076575" y="4276725"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1836,14 +1772,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>597535</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1164590</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1145540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1860,7 +1796,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10868025" y="5172075"/>
+          <a:off x="10868025" y="4276725"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1874,13 +1810,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>445135</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1145540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1898,7 +1834,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="5153025"/>
+          <a:off x="3076575" y="4276725"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1912,14 +1848,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>597535</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1164590</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1145540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1936,7 +1872,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10868025" y="5172075"/>
+          <a:off x="10868025" y="4276725"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1950,13 +1886,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>445135</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1145540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1974,7 +1910,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="5153025"/>
+          <a:off x="3076575" y="4276725"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1988,14 +1924,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>597535</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1164590</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1145540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2012,7 +1948,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10868025" y="5172075"/>
+          <a:off x="10868025" y="4276725"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2367,7 +2303,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2402,15 +2338,15 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="str">
+      <c r="C3" s="10" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
@@ -2426,15 +2362,15 @@
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10" t="str">
-        <f>IF(_metadata!B14="","",_metadata!B14)</f>
-        <v/>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"03:00:00"</f>
+        <v>03:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -2452,8 +2388,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -2485,8 +2421,8 @@
       <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -2531,8 +2467,8 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -2548,7 +2484,7 @@
         <v/>
       </c>
       <c r="E7" s="17" t="str">
-        <f>IF(_main2_day_4hour!C3="","",_main2_day_4hour!C3)</f>
+        <f>IF(_main1_day_4hour!C3="","",_main1_day_4hour!C3)</f>
         <v/>
       </c>
       <c r="F7" s="17" t="str">
@@ -2556,11 +2492,11 @@
         <v/>
       </c>
       <c r="G7" s="18" t="str">
-        <f>IF(_main2_day_4hour!E3="","",_main2_day_4hour!E3)</f>
+        <f>IF(_main1_day_4hour!E3="","",_main1_day_4hour!E3)</f>
         <v/>
       </c>
       <c r="H7" s="18" t="str">
-        <f>IF(_main2_day_4hour!F3="","",_main2_day_4hour!F3)</f>
+        <f>IF(_main1_day_4hour!F3="","",_main1_day_4hour!F3)</f>
         <v/>
       </c>
       <c r="I7" s="18" t="str">
@@ -2577,8 +2513,8 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -2594,7 +2530,7 @@
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IF(_main2_day_4hour!C2="","",_main2_day_4hour!C2)</f>
+        <f>IF(_main2_day_4hour!A2="","",_main2_day_4hour!A2)</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
@@ -2602,29 +2538,29 @@
         <v/>
       </c>
       <c r="G8" s="23" t="str">
+        <f>IF(_main2_day_4hour!B2="","",_main2_day_4hour!B2)</f>
+        <v/>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f>IF(_main2_day_4hour!C2="","",_main2_day_4hour!C2)</f>
+        <v/>
+      </c>
+      <c r="I8" s="24" t="str">
+        <f>IF(_main2_day_4hour!D2="","",_main2_day_4hour!D2)</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!E2="","",_main2_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!F2="","",_main2_day_4hour!F2)</f>
-        <v/>
-      </c>
-      <c r="I8" s="24" t="str">
-        <f>IF(_main2_day_4hour!G2="","",_main2_day_4hour!G2)</f>
-        <v/>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!H2="","",_main2_day_4hour!H2)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!I2="","",_main2_day_4hour!I2)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
@@ -2669,8 +2605,8 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
@@ -2686,12 +2622,12 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
@@ -2709,8 +2645,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -2738,8 +2674,8 @@
       <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
@@ -2772,8 +2708,8 @@
       <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
@@ -2806,8 +2742,8 @@
       <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
@@ -2840,8 +2776,8 @@
       <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
@@ -2859,8 +2795,8 @@
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -2880,8 +2816,8 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
@@ -2901,8 +2837,8 @@
       <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
@@ -2918,8 +2854,8 @@
       <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
@@ -2935,8 +2871,8 @@
       <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
@@ -2952,8 +2888,8 @@
       <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
@@ -2969,8 +2905,8 @@
       <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
@@ -2986,8 +2922,8 @@
       <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
@@ -3003,8 +2939,8 @@
       <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
@@ -3020,8 +2956,8 @@
       <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
@@ -3045,8 +2981,8 @@
       <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
@@ -3062,8 +2998,8 @@
       <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
@@ -3081,20 +3017,21 @@
       <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -3137,7 +3074,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -3171,7 +3108,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3206,17 +3143,17 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3230,15 +3167,15 @@
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"07:00:00"</f>
+        <v>07:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -3256,8 +3193,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -3289,8 +3226,8 @@
       <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -3335,8 +3272,8 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -3381,8 +3318,8 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -3398,7 +3335,7 @@
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IF(_main2_day_4hour!C6="","",_main2_day_4hour!C6)</f>
+        <f>IF(_main2_day_4hour!A6="","",_main2_day_4hour!A6)</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
@@ -3406,29 +3343,29 @@
         <v/>
       </c>
       <c r="G8" s="23" t="str">
+        <f>IF(_main2_day_4hour!B6="","",_main2_day_4hour!B6)</f>
+        <v/>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f>IF(_main2_day_4hour!C6="","",_main2_day_4hour!C6)</f>
+        <v/>
+      </c>
+      <c r="I8" s="24" t="str">
+        <f>IF(_main2_day_4hour!D6="","",_main2_day_4hour!D6)</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!E6="","",_main2_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!F6="","",_main2_day_4hour!F6)</f>
-        <v/>
-      </c>
-      <c r="I8" s="24" t="str">
-        <f>IF(_main2_day_4hour!G6="","",_main2_day_4hour!G6)</f>
-        <v/>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!H6="","",_main2_day_4hour!H6)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!I6="","",_main2_day_4hour!I6)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
@@ -3473,8 +3410,8 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
@@ -3490,12 +3427,12 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
@@ -3513,8 +3450,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -3542,8 +3479,8 @@
       <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
@@ -3576,8 +3513,8 @@
       <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
@@ -3610,8 +3547,8 @@
       <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
@@ -3644,8 +3581,8 @@
       <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
@@ -3663,8 +3600,8 @@
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -3684,8 +3621,8 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
@@ -3705,8 +3642,8 @@
       <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
@@ -3722,8 +3659,8 @@
       <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
@@ -3739,8 +3676,8 @@
       <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
@@ -3756,8 +3693,8 @@
       <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
@@ -3773,8 +3710,8 @@
       <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
@@ -3790,8 +3727,8 @@
       <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
@@ -3807,8 +3744,8 @@
       <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
@@ -3824,8 +3761,8 @@
       <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
@@ -3849,8 +3786,8 @@
       <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
@@ -3866,8 +3803,8 @@
       <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
@@ -3885,20 +3822,21 @@
       <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -3933,7 +3871,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3968,17 +3906,17 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3986,21 +3924,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"11:00:00"</f>
+        <v>11:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -4018,8 +3956,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -4051,8 +3989,8 @@
       <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -4097,8 +4035,8 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -4143,8 +4081,8 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -4160,7 +4098,7 @@
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IF(_main2_day_4hour!C10="","",_main2_day_4hour!C10)</f>
+        <f>IF(_main2_day_4hour!A10="","",_main2_day_4hour!A10)</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
@@ -4168,29 +4106,29 @@
         <v/>
       </c>
       <c r="G8" s="23" t="str">
+        <f>IF(_main2_day_4hour!B10="","",_main2_day_4hour!B10)</f>
+        <v/>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f>IF(_main2_day_4hour!C10="","",_main2_day_4hour!C10)</f>
+        <v/>
+      </c>
+      <c r="I8" s="24" t="str">
+        <f>IF(_main2_day_4hour!D10="","",_main2_day_4hour!D10)</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!E10="","",_main2_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!F10="","",_main2_day_4hour!F10)</f>
-        <v/>
-      </c>
-      <c r="I8" s="24" t="str">
-        <f>IF(_main2_day_4hour!G10="","",_main2_day_4hour!G10)</f>
-        <v/>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!H10="","",_main2_day_4hour!H10)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!I10="","",_main2_day_4hour!I10)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
@@ -4235,8 +4173,8 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
@@ -4252,12 +4190,12 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
@@ -4275,8 +4213,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -4304,8 +4242,8 @@
       <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
@@ -4338,8 +4276,8 @@
       <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
@@ -4372,8 +4310,8 @@
       <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
@@ -4406,8 +4344,8 @@
       <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
@@ -4425,8 +4363,8 @@
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -4446,8 +4384,8 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
@@ -4467,8 +4405,8 @@
       <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
@@ -4484,8 +4422,8 @@
       <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
@@ -4501,8 +4439,8 @@
       <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
@@ -4518,8 +4456,8 @@
       <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
@@ -4535,8 +4473,8 @@
       <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
@@ -4552,8 +4490,8 @@
       <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
@@ -4569,8 +4507,8 @@
       <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
@@ -4586,8 +4524,8 @@
       <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
@@ -4611,8 +4549,8 @@
       <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
@@ -4628,8 +4566,8 @@
       <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
@@ -4647,20 +4585,21 @@
       <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -4695,8 +4634,8 @@
   <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4731,17 +4670,17 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4749,21 +4688,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"15:00:00"</f>
+        <v>15:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -4781,8 +4720,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -4814,8 +4753,8 @@
       <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -4860,8 +4799,8 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -4906,8 +4845,8 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -4923,7 +4862,7 @@
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IF(_main2_day_4hour!C14="","",_main2_day_4hour!C14)</f>
+        <f>IF(_main2_day_4hour!A14="","",_main2_day_4hour!A14)</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
@@ -4931,29 +4870,29 @@
         <v/>
       </c>
       <c r="G8" s="23" t="str">
+        <f>IF(_main2_day_4hour!B14="","",_main2_day_4hour!B14)</f>
+        <v/>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f>IF(_main2_day_4hour!C14="","",_main2_day_4hour!C14)</f>
+        <v/>
+      </c>
+      <c r="I8" s="24" t="str">
+        <f>IF(_main2_day_4hour!D14="","",_main2_day_4hour!D14)</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!E14="","",_main2_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!F14="","",_main2_day_4hour!F14)</f>
-        <v/>
-      </c>
-      <c r="I8" s="24" t="str">
-        <f>IF(_main2_day_4hour!G14="","",_main2_day_4hour!G14)</f>
-        <v/>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!H14="","",_main2_day_4hour!H14)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!I14="","",_main2_day_4hour!I14)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
@@ -4998,8 +4937,8 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
@@ -5015,12 +4954,12 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
@@ -5038,8 +4977,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -5067,8 +5006,8 @@
       <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
@@ -5101,8 +5040,8 @@
       <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
@@ -5135,8 +5074,8 @@
       <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
@@ -5169,8 +5108,8 @@
       <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
@@ -5188,8 +5127,8 @@
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -5209,8 +5148,8 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
@@ -5230,8 +5169,8 @@
       <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
@@ -5247,8 +5186,8 @@
       <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
@@ -5264,8 +5203,8 @@
       <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
@@ -5281,8 +5220,8 @@
       <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
@@ -5298,8 +5237,8 @@
       <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
@@ -5315,8 +5254,8 @@
       <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
@@ -5332,8 +5271,8 @@
       <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
@@ -5349,8 +5288,8 @@
       <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
@@ -5374,8 +5313,8 @@
       <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
@@ -5391,8 +5330,8 @@
       <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
@@ -5410,20 +5349,21 @@
       <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -5455,10 +5395,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Z32"/>
+  <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5493,17 +5433,17 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -5511,21 +5451,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"19:00:00"</f>
+        <v>19:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -5543,8 +5483,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -5576,524 +5516,492 @@
       <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-    </row>
-    <row r="6" s="57" customFormat="1" ht="34.5" spans="1:13">
-      <c r="A6" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A6" s="7"/>
+      <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>IF(_main1_day_4hour!A18="","",_main1_day_4hour!A18)</f>
+        <v/>
+      </c>
+      <c r="D6" s="16" t="str">
+        <f>IF(_main1_day_4hour!B18="","",_main1_day_4hour!B18)</f>
+        <v/>
+      </c>
+      <c r="E6" s="16" t="str">
+        <f>IF(_main1_day_4hour!C18="","",_main1_day_4hour!C18)</f>
+        <v/>
+      </c>
+      <c r="F6" s="16" t="str">
+        <f>IF(_main1_day_4hour!D18="","",_main1_day_4hour!D18)</f>
+        <v/>
+      </c>
+      <c r="G6" s="16" t="str">
+        <f>IF(_main1_day_4hour!E18="","",_main1_day_4hour!E18)</f>
+        <v/>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f>IF(_main1_day_4hour!F18="","",_main1_day_4hour!F18)</f>
+        <v/>
+      </c>
+      <c r="I6" s="16" t="str">
+        <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
+        <v/>
+      </c>
+      <c r="J6" s="33" t="str">
+        <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
+        <v/>
+      </c>
+      <c r="K6" s="33" t="str">
+        <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
+        <v/>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
       <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A18="","",_main1_day_4hour!A18)</f>
-        <v/>
-      </c>
-      <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B18="","",_main1_day_4hour!B18)</f>
-        <v/>
-      </c>
-      <c r="E7" s="16" t="str">
-        <f>IF(_main1_day_4hour!C18="","",_main1_day_4hour!C18)</f>
-        <v/>
-      </c>
-      <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D18="","",_main1_day_4hour!D18)</f>
-        <v/>
-      </c>
-      <c r="G7" s="16" t="str">
-        <f>IF(_main1_day_4hour!E18="","",_main1_day_4hour!E18)</f>
-        <v/>
-      </c>
-      <c r="H7" s="16" t="str">
-        <f>IF(_main1_day_4hour!F18="","",_main1_day_4hour!F18)</f>
-        <v/>
-      </c>
-      <c r="I7" s="16" t="str">
-        <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
-        <v/>
-      </c>
-      <c r="J7" s="33" t="str">
-        <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
-        <v/>
-      </c>
-      <c r="K7" s="33" t="str">
-        <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
+        <v>15</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
+        <v/>
+      </c>
+      <c r="D7" s="17" t="str">
+        <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
+        <v/>
+      </c>
+      <c r="E7" s="17" t="str">
+        <f>IF(_main1_day_4hour!C19="","",_main1_day_4hour!C19)</f>
+        <v/>
+      </c>
+      <c r="F7" s="17" t="str">
+        <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
+        <v/>
+      </c>
+      <c r="G7" s="18" t="str">
+        <f>IF(_main1_day_4hour!E19="","",_main1_day_4hour!E19)</f>
+        <v/>
+      </c>
+      <c r="H7" s="18" t="str">
+        <f>IF(_main1_day_4hour!F19="","",_main1_day_4hour!F19)</f>
+        <v/>
+      </c>
+      <c r="I7" s="18" t="str">
+        <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
+        <v/>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A8" s="7"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="17" t="str">
-        <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
-        <v/>
-      </c>
-      <c r="D8" s="17" t="str">
-        <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
-        <v/>
-      </c>
-      <c r="E8" s="17" t="str">
-        <f>IF(_main1_day_4hour!C19="","",_main1_day_4hour!C19)</f>
-        <v/>
-      </c>
-      <c r="F8" s="17" t="str">
-        <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
-        <v/>
-      </c>
-      <c r="G8" s="18" t="str">
-        <f>IF(_main1_day_4hour!E19="","",_main1_day_4hour!E19)</f>
-        <v/>
-      </c>
-      <c r="H8" s="18" t="str">
-        <f>IF(_main1_day_4hour!F19="","",_main1_day_4hour!F19)</f>
-        <v/>
-      </c>
-      <c r="I8" s="18" t="str">
-        <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
+        <v>16</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
+        <v/>
+      </c>
+      <c r="D8" s="21" t="str">
+        <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
+        <v/>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f>IF(_main2_day_4hour!A18="","",_main2_day_4hour!A18)</f>
+        <v/>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
+        <f>IF(_main2_day_4hour!B18="","",_main2_day_4hour!B18)</f>
+        <v/>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
+        <v/>
+      </c>
+      <c r="I8" s="24" t="str">
+        <f>IF(_main2_day_4hour!D18="","",_main2_day_4hour!D18)</f>
         <v/>
       </c>
       <c r="J8" s="22" t="str">
-        <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
+        <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
         <v/>
       </c>
       <c r="K8" s="22" t="str">
-        <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
+        <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A9" s="19"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="20" t="str">
-        <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
+        <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
         <v/>
       </c>
       <c r="D9" s="21" t="str">
-        <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
+        <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
         <v/>
       </c>
       <c r="E9" s="22" t="str">
-        <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
+        <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
         <v/>
       </c>
       <c r="F9" s="22" t="str">
-        <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
-        <v/>
-      </c>
-      <c r="G9" s="23" t="str">
-        <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
-        <v/>
-      </c>
-      <c r="H9" s="24" t="str">
-        <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
-        <v/>
-      </c>
-      <c r="I9" s="24" t="str">
-        <f>IF(_main2_day_4hour!G18="","",_main2_day_4hour!G18)</f>
+        <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
+        <v/>
+      </c>
+      <c r="G9" s="22" t="str">
+        <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
+        <v/>
+      </c>
+      <c r="H9" s="21" t="str">
+        <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
+        <v/>
+      </c>
+      <c r="I9" s="21" t="str">
+        <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
         <v/>
       </c>
       <c r="J9" s="22" t="str">
-        <f>IF(_main2_day_4hour!H18="","",_main2_day_4hour!H18)</f>
+        <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
         <v/>
       </c>
       <c r="K9" s="22" t="str">
-        <f>IF(_main2_day_4hour!I18="","",_main2_day_4hour!I18)</f>
+        <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="20" t="str">
-        <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
-        <v/>
-      </c>
-      <c r="D10" s="21" t="str">
-        <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
-        <v/>
-      </c>
-      <c r="E10" s="22" t="str">
-        <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
-        <v/>
-      </c>
-      <c r="F10" s="22" t="str">
-        <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
-        <v/>
-      </c>
-      <c r="G10" s="22" t="str">
-        <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
-        <v/>
-      </c>
-      <c r="H10" s="21" t="str">
-        <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
-        <v/>
-      </c>
-      <c r="I10" s="21" t="str">
-        <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
-        <v/>
-      </c>
-      <c r="J10" s="22" t="str">
-        <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
-        <v/>
-      </c>
-      <c r="K10" s="22" t="str">
-        <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
-        <v/>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+      <c r="B11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
-      <c r="B12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="29" t="str">
+        <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
+        <v/>
+      </c>
+      <c r="D13" s="29" t="str">
+        <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
+        <v/>
+      </c>
+      <c r="E13" s="29" t="str">
+        <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
+        <v/>
+      </c>
+      <c r="F13" s="29" t="str">
+        <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
+        <v/>
+      </c>
+      <c r="G13" s="29" t="str">
+        <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
+        <v/>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-    </row>
-    <row r="14" s="57" customFormat="1" ht="17.25" spans="1:13">
-      <c r="A14" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="31" t="str">
+        <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
+        <v/>
+      </c>
+      <c r="D14" s="31" t="str">
+        <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
+        <v/>
+      </c>
+      <c r="E14" s="31" t="str">
+        <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
+        <v/>
+      </c>
+      <c r="F14" s="32" t="str">
+        <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
+        <v/>
+      </c>
+      <c r="G14" s="31" t="str">
+        <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
+        <v/>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="29" t="str">
-        <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
-        <v/>
-      </c>
-      <c r="D15" s="29" t="str">
-        <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
-        <v/>
-      </c>
-      <c r="E15" s="29" t="str">
-        <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
-        <v/>
-      </c>
-      <c r="F15" s="29" t="str">
-        <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
-        <v/>
-      </c>
-      <c r="G15" s="29" t="str">
-        <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
-        <v/>
-      </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="B15" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="21" t="str">
+        <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
+        <v/>
+      </c>
+      <c r="D15" s="21" t="str">
+        <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
+        <v/>
+      </c>
+      <c r="E15" s="21" t="str">
+        <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
+        <v/>
+      </c>
+      <c r="F15" s="22" t="str">
+        <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
+        <v/>
+      </c>
+      <c r="G15" s="22" t="str">
+        <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
+        <v/>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="31" t="str">
-        <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
-        <v/>
-      </c>
-      <c r="D16" s="31" t="str">
-        <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
-        <v/>
-      </c>
-      <c r="E16" s="31" t="str">
-        <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
-        <v/>
-      </c>
-      <c r="F16" s="32" t="str">
-        <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
-        <v/>
-      </c>
-      <c r="G16" s="31" t="str">
-        <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
-        <v/>
-      </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="B16" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
-      <c r="B17" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="21" t="str">
-        <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
-        <v/>
-      </c>
-      <c r="D17" s="21" t="str">
-        <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
-        <v/>
-      </c>
-      <c r="E17" s="21" t="str">
-        <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
-        <v/>
-      </c>
-      <c r="F17" s="22" t="str">
-        <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
-        <v/>
-      </c>
-      <c r="G17" s="22" t="str">
-        <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
-        <v/>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
-      <c r="B18" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="B18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-    </row>
-    <row r="21" s="57" customFormat="1" ht="17.25" spans="1:13">
-      <c r="A21" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:26">
+      <c r="A21" s="7"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
@@ -6109,8 +6017,8 @@
       <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
@@ -6126,169 +6034,118 @@
       <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-    </row>
-    <row r="25" s="6" customFormat="1" spans="1:26">
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="B26" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-    </row>
-    <row r="28" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
+      <c r="B28" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-    </row>
-    <row r="29" s="6" customFormat="1" spans="1:26">
-      <c r="A29" s="7"/>
-      <c r="B29" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-    </row>
-    <row r="30" s="6" customFormat="1" spans="1:26">
-      <c r="A30" s="7"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-    </row>
-    <row r="31" s="6" customFormat="1" ht="16.5" spans="1:26">
-      <c r="A31" s="7"/>
-      <c r="B31" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-    </row>
-    <row r="32" s="6" customFormat="1" spans="25:26">
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="25:26">
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D5:E6" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B22:F28"/>
-    <mergeCell ref="G22:K28"/>
-    <mergeCell ref="C29:F30"/>
-    <mergeCell ref="H29:K30"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B19:F25"/>
+    <mergeCell ref="G19:K25"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="H26:K27"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"夜班,白班,中班"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:K10 C17:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:K9 C15:G15">
       <formula1>"低,偏低,正常,偏高,高"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6304,7 +6161,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6339,17 +6196,17 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -6357,21 +6214,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"23:00:00"</f>
+        <v>23:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -6389,8 +6246,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -6422,8 +6279,8 @@
       <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -6468,8 +6325,8 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -6514,8 +6371,8 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -6531,7 +6388,7 @@
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
+        <f>IF(_main2_day_4hour!A22="","",_main2_day_4hour!A22)</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
@@ -6539,29 +6396,29 @@
         <v/>
       </c>
       <c r="G8" s="23" t="str">
+        <f>IF(_main2_day_4hour!B22="","",_main2_day_4hour!B22)</f>
+        <v/>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
+        <v/>
+      </c>
+      <c r="I8" s="24" t="str">
+        <f>IF(_main2_day_4hour!D22="","",_main2_day_4hour!D22)</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
-        <v/>
-      </c>
-      <c r="I8" s="24" t="str">
-        <f>IF(_main2_day_4hour!G22="","",_main2_day_4hour!G22)</f>
-        <v/>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!H22="","",_main2_day_4hour!H22)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!I22="","",_main2_day_4hour!I22)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
@@ -6606,8 +6463,8 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
@@ -6623,12 +6480,12 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
@@ -6646,8 +6503,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -6675,8 +6532,8 @@
       <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
@@ -6709,8 +6566,8 @@
       <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
@@ -6743,8 +6600,8 @@
       <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
@@ -6777,8 +6634,8 @@
       <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
@@ -6796,8 +6653,8 @@
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -6817,8 +6674,8 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
@@ -6838,8 +6695,8 @@
       <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
@@ -6855,8 +6712,8 @@
       <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
@@ -6872,8 +6729,8 @@
       <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
@@ -6889,8 +6746,8 @@
       <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
@@ -6906,8 +6763,8 @@
       <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
@@ -6923,8 +6780,8 @@
       <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
@@ -6940,8 +6797,8 @@
       <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
@@ -6957,8 +6814,8 @@
       <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
@@ -6982,8 +6839,8 @@
       <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
@@ -6999,8 +6856,8 @@
       <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
@@ -7018,20 +6875,21 @@
       <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -7073,32 +6931,32 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="86.25" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -7113,46 +6971,37 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" ht="86.25" spans="1:9">
+    <row r="1" ht="69" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B1:C1" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="A1" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -7184,10 +7033,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
@@ -13,10 +13,10 @@
     <sheet name="15" sheetId="7" r:id="rId4"/>
     <sheet name="19" sheetId="8" r:id="rId5"/>
     <sheet name="23" sheetId="9" r:id="rId6"/>
-    <sheet name="_main1_day_4hour" sheetId="10" r:id="rId7"/>
-    <sheet name="_main2_day_4hour" sheetId="11" r:id="rId8"/>
-    <sheet name="_main3_day_4hour" sheetId="13" r:id="rId9"/>
-    <sheet name="_dictionary" sheetId="12" r:id="rId10"/>
+    <sheet name="_main1_day_4hour" sheetId="10" state="hidden" r:id="rId7"/>
+    <sheet name="_main2_day_4hour" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="_main3_day_4hour" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="_dictionary" sheetId="12" state="hidden" r:id="rId10"/>
     <sheet name="_metadata" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -178,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -205,12 +205,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -221,31 +221,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,22 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,25 +258,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,8 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,7 +311,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -356,17 +326,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +405,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,73 +495,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,19 +549,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,67 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,21 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -769,26 +754,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,8 +779,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,11 +794,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,152 +839,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,10 +1051,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1063,7 +1059,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1085,10 +1081,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1099,14 +1095,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,7 +1136,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1168,10 +1164,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="21" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="21" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2338,8 +2334,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -2359,18 +2355,18 @@
         <v>3</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="53" t="str">
-        <f>"03:00:00"</f>
-        <v>03:00:00</v>
-      </c>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
+      </c>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -2388,8 +2384,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -2414,15 +2410,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -2457,18 +2453,18 @@
         <f>IF(_main1_day_4hour!G2="","",_main1_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H2="","",_main1_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I2="","",_main1_day_4hour!I2)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -2476,11 +2472,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A3="","",_main1_day_4hour!A3)</f>
+        <f>IF(_main1_day_4hour!A3="","",INT(LEFT(_main1_day_4hour!A3,FIND("～",_main1_day_4hour!A3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A3,LEN(_main1_day_4hour!A3)-FIND("～",_main1_day_4hour!A3))))</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B3="","",_main1_day_4hour!B3)</f>
+        <f>IF(_main1_day_4hour!B3="","",INT(LEFT(_main1_day_4hour!B3,FIND("～",_main1_day_4hour!B3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B3,LEN(_main1_day_4hour!B3)-FIND("～",_main1_day_4hour!B3))))</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -2488,7 +2484,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D3="","",_main1_day_4hour!D3)</f>
+        <f>IF(_main1_day_4hour!D3="","",INT(LEFT(_main1_day_4hour!D3,FIND("～",_main1_day_4hour!D3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D3,LEN(_main1_day_4hour!D3)-FIND("～",_main1_day_4hour!D3))))</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -2503,18 +2499,18 @@
         <f>IF(_main1_day_4hour!G3="","",_main1_day_4hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
-        <f>IF(_main1_day_4hour!H3="","",_main1_day_4hour!H3)</f>
-        <v/>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f>IF(_main1_day_4hour!I3="","",_main1_day_4hour!I3)</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H3="","",INT(LEFT(_main1_day_4hour!H3,FIND("～",_main1_day_4hour!H3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H3,LEN(_main1_day_4hour!H3)-FIND("～",_main1_day_4hour!H3))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I3="","",INT(LEFT(_main1_day_4hour!I3,FIND("～",_main1_day_4hour!I3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I3,LEN(_main1_day_4hour!I3)-FIND("～",_main1_day_4hour!I3))))</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -2525,128 +2521,128 @@
         <f>IF(_main1_day_4hour!A4="","",_main1_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B4="","",_main1_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A2="","",_main2_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
-        <f>IF(_main1_day_4hour!D4="","",_main1_day_4hour!D4)</f>
-        <v/>
-      </c>
-      <c r="G8" s="23" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D4="","",INT(_main1_day_4hour!D4))</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B2="","",_main2_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C2="","",_main2_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D2="","",_main2_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!E2="","",_main2_day_4hour!E2)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!F2="","",_main2_day_4hour!F2)</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E2="","",INT(LEFT(_main2_day_4hour!E2,FIND("～",_main2_day_4hour!E2)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E2,LEN(_main2_day_4hour!E2)-FIND("～",_main2_day_4hour!E2))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F2="","",INT(LEFT(_main2_day_4hour!F2,FIND("～",_main2_day_4hour!F2)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F2,LEN(_main2_day_4hour!F2)-FIND("～",_main2_day_4hour!F2))))</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_main1_day_4hour!A5="","",_main1_day_4hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B5="","",_main1_day_4hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C5="","",_main1_day_4hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D5="","",_main1_day_4hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E5="","",_main1_day_4hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F5="","",_main1_day_4hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G5="","",_main1_day_4hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H5="","",_main1_day_4hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I5="","",_main1_day_4hour!I5)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -2668,135 +2664,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A2="","",_main3_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B2="","",_main3_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C2="","",_main3_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D2="","",_main3_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E2="","",_main3_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A3="","",_main3_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B3="","",_main3_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C3="","",_main3_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D3="","",_main3_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E3="","",_main3_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A4="","",_main3_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B4="","",_main3_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C4="","",_main3_day_4hour!C4)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D4="","",_main3_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E4="","",_main3_day_4hour!E4)</f>
         <v/>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -2816,213 +2812,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="33" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3108,7 +3104,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3143,8 +3139,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -3164,18 +3160,18 @@
         <v>3</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="53" t="str">
-        <f>"07:00:00"</f>
-        <v>07:00:00</v>
-      </c>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
+      </c>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -3193,8 +3189,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -3219,15 +3215,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -3262,18 +3258,18 @@
         <f>IF(_main1_day_4hour!G6="","",_main1_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H6="","",_main1_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I6="","",_main1_day_4hour!I6)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -3281,11 +3277,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A7="","",_main1_day_4hour!A7)</f>
+        <f>IF(_main1_day_4hour!A7="","",INT(LEFT(_main1_day_4hour!A7,FIND("～",_main1_day_4hour!A7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A7,LEN(_main1_day_4hour!A7)-FIND("～",_main1_day_4hour!A7))))</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B7="","",_main1_day_4hour!B7)</f>
+        <f>IF(_main1_day_4hour!B7="","",INT(LEFT(_main1_day_4hour!B7,FIND("～",_main1_day_4hour!B7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B7,LEN(_main1_day_4hour!B7)-FIND("～",_main1_day_4hour!B7))))</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -3293,7 +3289,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D7="","",_main1_day_4hour!D7)</f>
+        <f>IF(_main1_day_4hour!D7="","",INT(LEFT(_main1_day_4hour!D7,FIND("～",_main1_day_4hour!D7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D7,LEN(_main1_day_4hour!D7)-FIND("～",_main1_day_4hour!D7))))</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -3308,18 +3304,18 @@
         <f>IF(_main1_day_4hour!G7="","",_main1_day_4hour!G7)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
-        <f>IF(_main1_day_4hour!H7="","",_main1_day_4hour!H7)</f>
-        <v/>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f>IF(_main1_day_4hour!I7="","",_main1_day_4hour!I7)</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H7="","",INT(LEFT(_main1_day_4hour!H7,FIND("～",_main1_day_4hour!H7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H7,LEN(_main1_day_4hour!H7)-FIND("～",_main1_day_4hour!H7))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I7="","",INT(LEFT(_main1_day_4hour!I7,FIND("～",_main1_day_4hour!I7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I7,LEN(_main1_day_4hour!I7)-FIND("～",_main1_day_4hour!I7))))</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -3330,128 +3326,128 @@
         <f>IF(_main1_day_4hour!A8="","",_main1_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B8="","",_main1_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A6="","",_main2_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
-        <f>IF(_main1_day_4hour!D8="","",_main1_day_4hour!D8)</f>
-        <v/>
-      </c>
-      <c r="G8" s="23" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D8="","",INT(_main1_day_4hour!D8))</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B6="","",_main2_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C6="","",_main2_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D6="","",_main2_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!E6="","",_main2_day_4hour!E6)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!F6="","",_main2_day_4hour!F6)</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E6="","",INT(LEFT(_main2_day_4hour!E6,FIND("～",_main2_day_4hour!E6)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E6,LEN(_main2_day_4hour!E6)-FIND("～",_main2_day_4hour!E6))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F6="","",INT(LEFT(_main2_day_4hour!F6,FIND("～",_main2_day_4hour!F6)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F6,LEN(_main2_day_4hour!F6)-FIND("～",_main2_day_4hour!F6))))</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_main1_day_4hour!A9="","",_main1_day_4hour!A9)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B9="","",_main1_day_4hour!B9)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C9="","",_main1_day_4hour!C9)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D9="","",_main1_day_4hour!D9)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E9="","",_main1_day_4hour!E9)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F9="","",_main1_day_4hour!F9)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G9="","",_main1_day_4hour!G9)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H9="","",_main1_day_4hour!H9)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I9="","",_main1_day_4hour!I9)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -3473,135 +3469,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A6="","",_main3_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B6="","",_main3_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C6="","",_main3_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D6="","",_main3_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E6="","",_main3_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A7="","",_main3_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B7="","",_main3_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C7="","",_main3_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D7="","",_main3_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E7="","",_main3_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A8="","",_main3_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B8="","",_main3_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C8="","",_main3_day_4hour!C8)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D8="","",_main3_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E8="","",_main3_day_4hour!E8)</f>
         <v/>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -3621,213 +3617,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="33" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3906,8 +3902,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -3927,18 +3923,18 @@
         <v>34</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="53" t="str">
-        <f>"11:00:00"</f>
-        <v>11:00:00</v>
-      </c>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
+      </c>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -3956,8 +3952,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -3982,15 +3978,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -4025,18 +4021,18 @@
         <f>IF(_main1_day_4hour!G10="","",_main1_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H10="","",_main1_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I10="","",_main1_day_4hour!I10)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -4044,11 +4040,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A11="","",_main1_day_4hour!A11)</f>
+        <f>IF(_main1_day_4hour!A11="","",INT(LEFT(_main1_day_4hour!A11,FIND("～",_main1_day_4hour!A11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A11,LEN(_main1_day_4hour!A11)-FIND("～",_main1_day_4hour!A11))))</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B11="","",_main1_day_4hour!B11)</f>
+        <f>IF(_main1_day_4hour!B11="","",INT(LEFT(_main1_day_4hour!B11,FIND("～",_main1_day_4hour!B11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B11,LEN(_main1_day_4hour!B11)-FIND("～",_main1_day_4hour!B11))))</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -4056,7 +4052,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D11="","",_main1_day_4hour!D11)</f>
+        <f>IF(_main1_day_4hour!D11="","",INT(LEFT(_main1_day_4hour!D11,FIND("～",_main1_day_4hour!D11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D11,LEN(_main1_day_4hour!D11)-FIND("～",_main1_day_4hour!D11))))</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -4071,18 +4067,18 @@
         <f>IF(_main1_day_4hour!G11="","",_main1_day_4hour!G11)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
-        <f>IF(_main1_day_4hour!H11="","",_main1_day_4hour!H11)</f>
-        <v/>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f>IF(_main1_day_4hour!I11="","",_main1_day_4hour!I11)</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H11="","",INT(LEFT(_main1_day_4hour!H11,FIND("～",_main1_day_4hour!H11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H11,LEN(_main1_day_4hour!H11)-FIND("～",_main1_day_4hour!H11))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I11="","",INT(LEFT(_main1_day_4hour!I11,FIND("～",_main1_day_4hour!I11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I11,LEN(_main1_day_4hour!I11)-FIND("～",_main1_day_4hour!I11))))</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -4093,128 +4089,128 @@
         <f>IF(_main1_day_4hour!A12="","",_main1_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B12="","",_main1_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A10="","",_main2_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
-        <f>IF(_main1_day_4hour!D12="","",_main1_day_4hour!D12)</f>
-        <v/>
-      </c>
-      <c r="G8" s="23" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D12="","",INT(_main1_day_4hour!D12))</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B10="","",_main2_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C10="","",_main2_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D10="","",_main2_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!E10="","",_main2_day_4hour!E10)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!F10="","",_main2_day_4hour!F10)</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E10="","",INT(LEFT(_main2_day_4hour!E10,FIND("～",_main2_day_4hour!E10)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E10,LEN(_main2_day_4hour!E10)-FIND("～",_main2_day_4hour!E10))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F10="","",INT(LEFT(_main2_day_4hour!F10,FIND("～",_main2_day_4hour!F10)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F10,LEN(_main2_day_4hour!F10)-FIND("～",_main2_day_4hour!F10))))</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_main1_day_4hour!A13="","",_main1_day_4hour!A13)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B13="","",_main1_day_4hour!B13)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C13="","",_main1_day_4hour!C13)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D13="","",_main1_day_4hour!D13)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E13="","",_main1_day_4hour!E13)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F13="","",_main1_day_4hour!F13)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G13="","",_main1_day_4hour!G13)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H13="","",_main1_day_4hour!H13)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I13="","",_main1_day_4hour!I13)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -4236,135 +4232,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A10="","",_main3_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B10="","",_main3_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C10="","",_main3_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D10="","",_main3_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E10="","",_main3_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A11="","",_main3_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B11="","",_main3_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C11="","",_main3_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D11="","",_main3_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E11="","",_main3_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A12="","",_main3_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B12="","",_main3_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C12="","",_main3_day_4hour!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D12="","",_main3_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E12="","",_main3_day_4hour!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -4384,213 +4380,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="33" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4670,8 +4666,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -4691,18 +4687,18 @@
         <v>34</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="53" t="str">
-        <f>"15:00:00"</f>
-        <v>15:00:00</v>
-      </c>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
+      </c>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -4720,8 +4716,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -4746,15 +4742,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -4789,18 +4785,18 @@
         <f>IF(_main1_day_4hour!G14="","",_main1_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H14="","",_main1_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I14="","",_main1_day_4hour!I14)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -4808,11 +4804,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A15="","",_main1_day_4hour!A15)</f>
+        <f>IF(_main1_day_4hour!A15="","",INT(LEFT(_main1_day_4hour!A15,FIND("～",_main1_day_4hour!A15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A15,LEN(_main1_day_4hour!A15)-FIND("～",_main1_day_4hour!A15))))</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B15="","",_main1_day_4hour!B15)</f>
+        <f>IF(_main1_day_4hour!B15="","",INT(LEFT(_main1_day_4hour!B15,FIND("～",_main1_day_4hour!B15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B15,LEN(_main1_day_4hour!B15)-FIND("～",_main1_day_4hour!B15))))</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -4820,7 +4816,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D15="","",_main1_day_4hour!D15)</f>
+        <f>IF(_main1_day_4hour!D15="","",INT(LEFT(_main1_day_4hour!D15,FIND("～",_main1_day_4hour!D15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D15,LEN(_main1_day_4hour!D15)-FIND("～",_main1_day_4hour!D15))))</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -4835,18 +4831,18 @@
         <f>IF(_main1_day_4hour!G15="","",_main1_day_4hour!G15)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
-        <f>IF(_main1_day_4hour!H15="","",_main1_day_4hour!H15)</f>
-        <v/>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f>IF(_main1_day_4hour!I15="","",_main1_day_4hour!I15)</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H15="","",INT(LEFT(_main1_day_4hour!H15,FIND("～",_main1_day_4hour!H15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H15,LEN(_main1_day_4hour!H15)-FIND("～",_main1_day_4hour!H15))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I15="","",INT(LEFT(_main1_day_4hour!I15,FIND("～",_main1_day_4hour!I15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I15,LEN(_main1_day_4hour!I15)-FIND("～",_main1_day_4hour!I15))))</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -4857,128 +4853,128 @@
         <f>IF(_main1_day_4hour!A16="","",_main1_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B16="","",_main1_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A14="","",_main2_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
-        <f>IF(_main1_day_4hour!D16="","",_main1_day_4hour!D16)</f>
-        <v/>
-      </c>
-      <c r="G8" s="23" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D16="","",INT(_main1_day_4hour!D16))</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B14="","",_main2_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C14="","",_main2_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D14="","",_main2_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!E14="","",_main2_day_4hour!E14)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!F14="","",_main2_day_4hour!F14)</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E14="","",INT(LEFT(_main2_day_4hour!E14,FIND("～",_main2_day_4hour!E14)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E14,LEN(_main2_day_4hour!E14)-FIND("～",_main2_day_4hour!E14))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F14="","",INT(LEFT(_main2_day_4hour!F14,FIND("～",_main2_day_4hour!F14)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F14,LEN(_main2_day_4hour!F14)-FIND("～",_main2_day_4hour!F14))))</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_main1_day_4hour!A17="","",_main1_day_4hour!A17)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B17="","",_main1_day_4hour!B17)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C17="","",_main1_day_4hour!C17)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D17="","",_main1_day_4hour!D17)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E17="","",_main1_day_4hour!E17)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F17="","",_main1_day_4hour!F17)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G17="","",_main1_day_4hour!G17)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H17="","",_main1_day_4hour!H17)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I17="","",_main1_day_4hour!I17)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -5000,135 +4996,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A14="","",_main3_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B14="","",_main3_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C14="","",_main3_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D14="","",_main3_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E14="","",_main3_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A15="","",_main3_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B15="","",_main3_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C15="","",_main3_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D15="","",_main3_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E15="","",_main3_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A16="","",_main3_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B16="","",_main3_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C16="","",_main3_day_4hour!C16)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D16="","",_main3_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E16="","",_main3_day_4hour!E16)</f>
         <v/>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -5148,213 +5144,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="33" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -5398,7 +5394,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5433,8 +5429,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -5454,18 +5450,18 @@
         <v>35</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="53" t="str">
-        <f>"19:00:00"</f>
-        <v>19:00:00</v>
-      </c>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
+      </c>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -5483,8 +5479,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -5509,15 +5505,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -5552,18 +5548,18 @@
         <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -5571,11 +5567,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
+        <f>IF(_main1_day_4hour!A19="","",INT(LEFT(_main1_day_4hour!A19,FIND("～",_main1_day_4hour!A19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A19,LEN(_main1_day_4hour!A19)-FIND("～",_main1_day_4hour!A19))))</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
+        <f>IF(_main1_day_4hour!B19="","",INT(LEFT(_main1_day_4hour!B19,FIND("～",_main1_day_4hour!B19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B19,LEN(_main1_day_4hour!B19)-FIND("～",_main1_day_4hour!B19))))</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -5583,7 +5579,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
+        <f>IF(_main1_day_4hour!D19="","",INT(LEFT(_main1_day_4hour!D19,FIND("～",_main1_day_4hour!D19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D19,LEN(_main1_day_4hour!D19)-FIND("～",_main1_day_4hour!D19))))</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -5598,18 +5594,18 @@
         <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
-        <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
-        <v/>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H19="","",INT(LEFT(_main1_day_4hour!H19,FIND("～",_main1_day_4hour!H19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H19,LEN(_main1_day_4hour!H19)-FIND("～",_main1_day_4hour!H19))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I19="","",INT(LEFT(_main1_day_4hour!I19,FIND("～",_main1_day_4hour!I19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I19,LEN(_main1_day_4hour!I19)-FIND("～",_main1_day_4hour!I19))))</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -5620,128 +5616,128 @@
         <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A18="","",_main2_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
-        <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
-        <v/>
-      </c>
-      <c r="G8" s="23" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D20="","",INT(_main1_day_4hour!D20))</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B18="","",_main2_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D18="","",_main2_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E18="","",INT(LEFT(_main2_day_4hour!E18,FIND("～",_main2_day_4hour!E18)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E18,LEN(_main2_day_4hour!E18)-FIND("～",_main2_day_4hour!E18))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F18="","",INT(LEFT(_main2_day_4hour!F18,FIND("～",_main2_day_4hour!F18)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F18,LEN(_main2_day_4hour!F18)-FIND("～",_main2_day_4hour!F18))))</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -5763,135 +5759,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
         <v/>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -5911,213 +5907,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="33" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -6196,8 +6192,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -6217,18 +6213,18 @@
         <v>35</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="53" t="str">
-        <f>"23:00:00"</f>
-        <v>23:00:00</v>
-      </c>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
+      </c>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -6246,8 +6242,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -6272,15 +6268,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -6315,18 +6311,18 @@
         <f>IF(_main1_day_4hour!G22="","",_main1_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H22="","",_main1_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K6" s="33" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I22="","",_main1_day_4hour!I22)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -6334,11 +6330,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A23="","",_main1_day_4hour!A23)</f>
+        <f>IF(_main1_day_4hour!A23="","",INT(LEFT(_main1_day_4hour!A23,FIND("～",_main1_day_4hour!A23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A23,LEN(_main1_day_4hour!A23)-FIND("～",_main1_day_4hour!A23))))</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B23="","",_main1_day_4hour!B23)</f>
+        <f>IF(_main1_day_4hour!B23="","",INT(LEFT(_main1_day_4hour!B23,FIND("～",_main1_day_4hour!B23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B23,LEN(_main1_day_4hour!B23)-FIND("～",_main1_day_4hour!B23))))</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -6346,7 +6342,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D23="","",_main1_day_4hour!D23)</f>
+        <f>IF(_main1_day_4hour!D23="","",INT(LEFT(_main1_day_4hour!D23,FIND("～",_main1_day_4hour!D23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D23,LEN(_main1_day_4hour!D23)-FIND("～",_main1_day_4hour!D23))))</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -6361,18 +6357,18 @@
         <f>IF(_main1_day_4hour!G23="","",_main1_day_4hour!G23)</f>
         <v/>
       </c>
-      <c r="J7" s="22" t="str">
-        <f>IF(_main1_day_4hour!H23="","",_main1_day_4hour!H23)</f>
-        <v/>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f>IF(_main1_day_4hour!I23="","",_main1_day_4hour!I23)</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H23="","",INT(LEFT(_main1_day_4hour!H23,FIND("～",_main1_day_4hour!H23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H23,LEN(_main1_day_4hour!H23)-FIND("～",_main1_day_4hour!H23))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I23="","",INT(LEFT(_main1_day_4hour!I23,FIND("～",_main1_day_4hour!I23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I23,LEN(_main1_day_4hour!I23)-FIND("～",_main1_day_4hour!I23))))</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -6383,128 +6379,128 @@
         <f>IF(_main1_day_4hour!A24="","",_main1_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B24="","",_main1_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E8" s="22" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A22="","",_main2_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="F8" s="22" t="str">
-        <f>IF(_main1_day_4hour!D24="","",_main1_day_4hour!D24)</f>
-        <v/>
-      </c>
-      <c r="G8" s="23" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D24="","",INT(_main1_day_4hour!D24))</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B22="","",_main2_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D22="","",_main2_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E22="","",INT(LEFT(_main2_day_4hour!E22,FIND("～",_main2_day_4hour!E22)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E22,LEN(_main2_day_4hour!E22)-FIND("～",_main2_day_4hour!E22))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F22="","",INT(LEFT(_main2_day_4hour!F22,FIND("～",_main2_day_4hour!F22)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F22,LEN(_main2_day_4hour!F22)-FIND("～",_main2_day_4hour!F22))))</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="21" t="str">
         <f>IF(_main1_day_4hour!A25="","",_main1_day_4hour!A25)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B25="","",_main1_day_4hour!B25)</f>
         <v/>
       </c>
-      <c r="E9" s="22" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C25="","",_main1_day_4hour!C25)</f>
         <v/>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D25="","",_main1_day_4hour!D25)</f>
         <v/>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E25="","",_main1_day_4hour!E25)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F25="","",_main1_day_4hour!F25)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G25="","",_main1_day_4hour!G25)</f>
         <v/>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H25="","",_main1_day_4hour!H25)</f>
         <v/>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I25="","",_main1_day_4hour!I25)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -6526,135 +6522,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A22="","",_main3_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B22="","",_main3_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C22="","",_main3_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D22="","",_main3_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E22="","",_main3_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A23="","",_main3_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B23="","",_main3_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C23="","",_main3_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D23="","",_main3_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E23="","",_main3_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A24="","",_main3_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B24="","",_main3_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C24="","",_main3_day_4hour!C24)</f>
         <v/>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D24="","",_main3_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E24="","",_main3_day_4hour!E24)</f>
         <v/>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -6674,213 +6670,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="33" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
@@ -13,10 +13,10 @@
     <sheet name="15" sheetId="7" r:id="rId4"/>
     <sheet name="19" sheetId="8" r:id="rId5"/>
     <sheet name="23" sheetId="9" r:id="rId6"/>
-    <sheet name="_main1_day_4hour" sheetId="10" state="hidden" r:id="rId7"/>
-    <sheet name="_main2_day_4hour" sheetId="11" state="hidden" r:id="rId8"/>
-    <sheet name="_main3_day_4hour" sheetId="13" state="hidden" r:id="rId9"/>
-    <sheet name="_dictionary" sheetId="12" state="hidden" r:id="rId10"/>
+    <sheet name="_main1_day_4hour" sheetId="10" r:id="rId7"/>
+    <sheet name="_main2_day_4hour" sheetId="11" r:id="rId8"/>
+    <sheet name="_main3_day_4hour" sheetId="13" r:id="rId9"/>
+    <sheet name="_dictionary" sheetId="12" r:id="rId10"/>
     <sheet name="_metadata" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -178,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -205,12 +205,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -221,8 +221,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,7 +267,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,32 +296,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,9 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,7 +341,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -326,47 +356,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +429,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,109 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,31 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +525,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +737,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -754,9 +769,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,8 +811,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,43 +826,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,152 +839,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,6 +1051,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1059,7 +1063,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1081,10 +1085,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1095,14 +1099,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,7 +1140,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1164,10 +1168,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2334,8 +2338,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -2355,18 +2359,18 @@
         <v>3</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="52" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"03:00:00"</f>
+        <v>03:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -2384,8 +2388,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -2410,15 +2414,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -2453,18 +2457,18 @@
         <f>IF(_main1_day_4hour!G2="","",_main1_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H2="","",_main1_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I2="","",_main1_day_4hour!I2)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -2472,11 +2476,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A3="","",INT(LEFT(_main1_day_4hour!A3,FIND("～",_main1_day_4hour!A3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A3,LEN(_main1_day_4hour!A3)-FIND("～",_main1_day_4hour!A3))))</f>
+        <f>IF(_main1_day_4hour!A3="","",_main1_day_4hour!A3)</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B3="","",INT(LEFT(_main1_day_4hour!B3,FIND("～",_main1_day_4hour!B3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B3,LEN(_main1_day_4hour!B3)-FIND("～",_main1_day_4hour!B3))))</f>
+        <f>IF(_main1_day_4hour!B3="","",_main1_day_4hour!B3)</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -2484,7 +2488,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D3="","",INT(LEFT(_main1_day_4hour!D3,FIND("～",_main1_day_4hour!D3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D3,LEN(_main1_day_4hour!D3)-FIND("～",_main1_day_4hour!D3))))</f>
+        <f>IF(_main1_day_4hour!D3="","",_main1_day_4hour!D3)</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -2499,18 +2503,18 @@
         <f>IF(_main1_day_4hour!G3="","",_main1_day_4hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H3="","",INT(LEFT(_main1_day_4hour!H3,FIND("～",_main1_day_4hour!H3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H3,LEN(_main1_day_4hour!H3)-FIND("～",_main1_day_4hour!H3))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I3="","",INT(LEFT(_main1_day_4hour!I3,FIND("～",_main1_day_4hour!I3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I3,LEN(_main1_day_4hour!I3)-FIND("～",_main1_day_4hour!I3))))</f>
+      <c r="J7" s="22" t="str">
+        <f>IF(_main1_day_4hour!H3="","",_main1_day_4hour!H3)</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(_main1_day_4hour!I3="","",_main1_day_4hour!I3)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -2521,128 +2525,128 @@
         <f>IF(_main1_day_4hour!A4="","",_main1_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B4="","",_main1_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!A2="","",_main2_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D4="","",INT(_main1_day_4hour!D4))</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="22" t="str">
+        <f>IF(_main1_day_4hour!D4="","",_main1_day_4hour!D4)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!B2="","",_main2_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!C2="","",_main2_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!D2="","",_main2_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E2="","",INT(LEFT(_main2_day_4hour!E2,FIND("～",_main2_day_4hour!E2)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E2,LEN(_main2_day_4hour!E2)-FIND("～",_main2_day_4hour!E2))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F2="","",INT(LEFT(_main2_day_4hour!F2,FIND("～",_main2_day_4hour!F2)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F2,LEN(_main2_day_4hour!F2)-FIND("～",_main2_day_4hour!F2))))</f>
+      <c r="J8" s="22" t="str">
+        <f>IF(_main2_day_4hour!E2="","",_main2_day_4hour!E2)</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>IF(_main2_day_4hour!F2="","",_main2_day_4hour!F2)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A5="","",_main1_day_4hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B5="","",_main1_day_4hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C5="","",_main1_day_4hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D5="","",_main1_day_4hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E5="","",_main1_day_4hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F5="","",_main1_day_4hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G5="","",_main1_day_4hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H5="","",_main1_day_4hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I5="","",_main1_day_4hour!I5)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -2664,135 +2668,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A2="","",_main3_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B2="","",_main3_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C2="","",_main3_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D2="","",_main3_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E2="","",_main3_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A3="","",_main3_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B3="","",_main3_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C3="","",_main3_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D3="","",_main3_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E3="","",_main3_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A4="","",_main3_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B4="","",_main3_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C4="","",_main3_day_4hour!C4)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D4="","",_main3_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E4="","",_main3_day_4hour!E4)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -2812,213 +2816,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3104,7 +3108,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3139,8 +3143,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -3160,18 +3164,18 @@
         <v>3</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="52" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"07:00:00"</f>
+        <v>07:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -3189,8 +3193,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -3215,15 +3219,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -3258,18 +3262,18 @@
         <f>IF(_main1_day_4hour!G6="","",_main1_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H6="","",_main1_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I6="","",_main1_day_4hour!I6)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -3277,11 +3281,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A7="","",INT(LEFT(_main1_day_4hour!A7,FIND("～",_main1_day_4hour!A7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A7,LEN(_main1_day_4hour!A7)-FIND("～",_main1_day_4hour!A7))))</f>
+        <f>IF(_main1_day_4hour!A7="","",_main1_day_4hour!A7)</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B7="","",INT(LEFT(_main1_day_4hour!B7,FIND("～",_main1_day_4hour!B7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B7,LEN(_main1_day_4hour!B7)-FIND("～",_main1_day_4hour!B7))))</f>
+        <f>IF(_main1_day_4hour!B7="","",_main1_day_4hour!B7)</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -3289,7 +3293,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D7="","",INT(LEFT(_main1_day_4hour!D7,FIND("～",_main1_day_4hour!D7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D7,LEN(_main1_day_4hour!D7)-FIND("～",_main1_day_4hour!D7))))</f>
+        <f>IF(_main1_day_4hour!D7="","",_main1_day_4hour!D7)</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -3304,18 +3308,18 @@
         <f>IF(_main1_day_4hour!G7="","",_main1_day_4hour!G7)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H7="","",INT(LEFT(_main1_day_4hour!H7,FIND("～",_main1_day_4hour!H7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H7,LEN(_main1_day_4hour!H7)-FIND("～",_main1_day_4hour!H7))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I7="","",INT(LEFT(_main1_day_4hour!I7,FIND("～",_main1_day_4hour!I7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I7,LEN(_main1_day_4hour!I7)-FIND("～",_main1_day_4hour!I7))))</f>
+      <c r="J7" s="22" t="str">
+        <f>IF(_main1_day_4hour!H7="","",_main1_day_4hour!H7)</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(_main1_day_4hour!I7="","",_main1_day_4hour!I7)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -3326,128 +3330,128 @@
         <f>IF(_main1_day_4hour!A8="","",_main1_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B8="","",_main1_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!A6="","",_main2_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D8="","",INT(_main1_day_4hour!D8))</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="22" t="str">
+        <f>IF(_main1_day_4hour!D8="","",_main1_day_4hour!D8)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!B6="","",_main2_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!C6="","",_main2_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!D6="","",_main2_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E6="","",INT(LEFT(_main2_day_4hour!E6,FIND("～",_main2_day_4hour!E6)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E6,LEN(_main2_day_4hour!E6)-FIND("～",_main2_day_4hour!E6))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F6="","",INT(LEFT(_main2_day_4hour!F6,FIND("～",_main2_day_4hour!F6)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F6,LEN(_main2_day_4hour!F6)-FIND("～",_main2_day_4hour!F6))))</f>
+      <c r="J8" s="22" t="str">
+        <f>IF(_main2_day_4hour!E6="","",_main2_day_4hour!E6)</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>IF(_main2_day_4hour!F6="","",_main2_day_4hour!F6)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A9="","",_main1_day_4hour!A9)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B9="","",_main1_day_4hour!B9)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C9="","",_main1_day_4hour!C9)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D9="","",_main1_day_4hour!D9)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E9="","",_main1_day_4hour!E9)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F9="","",_main1_day_4hour!F9)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G9="","",_main1_day_4hour!G9)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H9="","",_main1_day_4hour!H9)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I9="","",_main1_day_4hour!I9)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -3469,135 +3473,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A6="","",_main3_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B6="","",_main3_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C6="","",_main3_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D6="","",_main3_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E6="","",_main3_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A7="","",_main3_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B7="","",_main3_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C7="","",_main3_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D7="","",_main3_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E7="","",_main3_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A8="","",_main3_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B8="","",_main3_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C8="","",_main3_day_4hour!C8)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D8="","",_main3_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E8="","",_main3_day_4hour!E8)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -3617,213 +3621,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3902,8 +3906,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -3923,18 +3927,18 @@
         <v>34</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="52" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"11:00:00"</f>
+        <v>11:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -3952,8 +3956,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -3978,15 +3982,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -4021,18 +4025,18 @@
         <f>IF(_main1_day_4hour!G10="","",_main1_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H10="","",_main1_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I10="","",_main1_day_4hour!I10)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -4040,11 +4044,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A11="","",INT(LEFT(_main1_day_4hour!A11,FIND("～",_main1_day_4hour!A11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A11,LEN(_main1_day_4hour!A11)-FIND("～",_main1_day_4hour!A11))))</f>
+        <f>IF(_main1_day_4hour!A11="","",_main1_day_4hour!A11)</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B11="","",INT(LEFT(_main1_day_4hour!B11,FIND("～",_main1_day_4hour!B11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B11,LEN(_main1_day_4hour!B11)-FIND("～",_main1_day_4hour!B11))))</f>
+        <f>IF(_main1_day_4hour!B11="","",_main1_day_4hour!B11)</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -4052,7 +4056,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D11="","",INT(LEFT(_main1_day_4hour!D11,FIND("～",_main1_day_4hour!D11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D11,LEN(_main1_day_4hour!D11)-FIND("～",_main1_day_4hour!D11))))</f>
+        <f>IF(_main1_day_4hour!D11="","",_main1_day_4hour!D11)</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -4067,18 +4071,18 @@
         <f>IF(_main1_day_4hour!G11="","",_main1_day_4hour!G11)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H11="","",INT(LEFT(_main1_day_4hour!H11,FIND("～",_main1_day_4hour!H11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H11,LEN(_main1_day_4hour!H11)-FIND("～",_main1_day_4hour!H11))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I11="","",INT(LEFT(_main1_day_4hour!I11,FIND("～",_main1_day_4hour!I11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I11,LEN(_main1_day_4hour!I11)-FIND("～",_main1_day_4hour!I11))))</f>
+      <c r="J7" s="22" t="str">
+        <f>IF(_main1_day_4hour!H11="","",_main1_day_4hour!H11)</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(_main1_day_4hour!I11="","",_main1_day_4hour!I11)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -4089,128 +4093,128 @@
         <f>IF(_main1_day_4hour!A12="","",_main1_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B12="","",_main1_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!A10="","",_main2_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D12="","",INT(_main1_day_4hour!D12))</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="22" t="str">
+        <f>IF(_main1_day_4hour!D12="","",_main1_day_4hour!D12)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!B10="","",_main2_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!C10="","",_main2_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!D10="","",_main2_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E10="","",INT(LEFT(_main2_day_4hour!E10,FIND("～",_main2_day_4hour!E10)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E10,LEN(_main2_day_4hour!E10)-FIND("～",_main2_day_4hour!E10))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F10="","",INT(LEFT(_main2_day_4hour!F10,FIND("～",_main2_day_4hour!F10)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F10,LEN(_main2_day_4hour!F10)-FIND("～",_main2_day_4hour!F10))))</f>
+      <c r="J8" s="22" t="str">
+        <f>IF(_main2_day_4hour!E10="","",_main2_day_4hour!E10)</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>IF(_main2_day_4hour!F10="","",_main2_day_4hour!F10)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A13="","",_main1_day_4hour!A13)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B13="","",_main1_day_4hour!B13)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C13="","",_main1_day_4hour!C13)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D13="","",_main1_day_4hour!D13)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E13="","",_main1_day_4hour!E13)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F13="","",_main1_day_4hour!F13)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G13="","",_main1_day_4hour!G13)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H13="","",_main1_day_4hour!H13)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I13="","",_main1_day_4hour!I13)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -4232,135 +4236,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A10="","",_main3_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B10="","",_main3_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C10="","",_main3_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D10="","",_main3_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E10="","",_main3_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A11="","",_main3_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B11="","",_main3_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C11="","",_main3_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D11="","",_main3_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E11="","",_main3_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A12="","",_main3_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B12="","",_main3_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C12="","",_main3_day_4hour!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D12="","",_main3_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E12="","",_main3_day_4hour!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -4380,213 +4384,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4666,8 +4670,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -4687,18 +4691,18 @@
         <v>34</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="52" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"15:00:00"</f>
+        <v>15:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -4716,8 +4720,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -4742,15 +4746,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -4785,18 +4789,18 @@
         <f>IF(_main1_day_4hour!G14="","",_main1_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H14="","",_main1_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I14="","",_main1_day_4hour!I14)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -4804,11 +4808,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A15="","",INT(LEFT(_main1_day_4hour!A15,FIND("～",_main1_day_4hour!A15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A15,LEN(_main1_day_4hour!A15)-FIND("～",_main1_day_4hour!A15))))</f>
+        <f>IF(_main1_day_4hour!A15="","",_main1_day_4hour!A15)</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B15="","",INT(LEFT(_main1_day_4hour!B15,FIND("～",_main1_day_4hour!B15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B15,LEN(_main1_day_4hour!B15)-FIND("～",_main1_day_4hour!B15))))</f>
+        <f>IF(_main1_day_4hour!B15="","",_main1_day_4hour!B15)</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -4816,7 +4820,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D15="","",INT(LEFT(_main1_day_4hour!D15,FIND("～",_main1_day_4hour!D15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D15,LEN(_main1_day_4hour!D15)-FIND("～",_main1_day_4hour!D15))))</f>
+        <f>IF(_main1_day_4hour!D15="","",_main1_day_4hour!D15)</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -4831,18 +4835,18 @@
         <f>IF(_main1_day_4hour!G15="","",_main1_day_4hour!G15)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H15="","",INT(LEFT(_main1_day_4hour!H15,FIND("～",_main1_day_4hour!H15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H15,LEN(_main1_day_4hour!H15)-FIND("～",_main1_day_4hour!H15))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I15="","",INT(LEFT(_main1_day_4hour!I15,FIND("～",_main1_day_4hour!I15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I15,LEN(_main1_day_4hour!I15)-FIND("～",_main1_day_4hour!I15))))</f>
+      <c r="J7" s="22" t="str">
+        <f>IF(_main1_day_4hour!H15="","",_main1_day_4hour!H15)</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(_main1_day_4hour!I15="","",_main1_day_4hour!I15)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -4853,128 +4857,128 @@
         <f>IF(_main1_day_4hour!A16="","",_main1_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B16="","",_main1_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!A14="","",_main2_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D16="","",INT(_main1_day_4hour!D16))</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="22" t="str">
+        <f>IF(_main1_day_4hour!D16="","",_main1_day_4hour!D16)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!B14="","",_main2_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!C14="","",_main2_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!D14="","",_main2_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E14="","",INT(LEFT(_main2_day_4hour!E14,FIND("～",_main2_day_4hour!E14)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E14,LEN(_main2_day_4hour!E14)-FIND("～",_main2_day_4hour!E14))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F14="","",INT(LEFT(_main2_day_4hour!F14,FIND("～",_main2_day_4hour!F14)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F14,LEN(_main2_day_4hour!F14)-FIND("～",_main2_day_4hour!F14))))</f>
+      <c r="J8" s="22" t="str">
+        <f>IF(_main2_day_4hour!E14="","",_main2_day_4hour!E14)</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>IF(_main2_day_4hour!F14="","",_main2_day_4hour!F14)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A17="","",_main1_day_4hour!A17)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B17="","",_main1_day_4hour!B17)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C17="","",_main1_day_4hour!C17)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D17="","",_main1_day_4hour!D17)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E17="","",_main1_day_4hour!E17)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F17="","",_main1_day_4hour!F17)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G17="","",_main1_day_4hour!G17)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H17="","",_main1_day_4hour!H17)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I17="","",_main1_day_4hour!I17)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -4996,135 +5000,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A14="","",_main3_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B14="","",_main3_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C14="","",_main3_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D14="","",_main3_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E14="","",_main3_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A15="","",_main3_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B15="","",_main3_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C15="","",_main3_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D15="","",_main3_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E15="","",_main3_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A16="","",_main3_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B16="","",_main3_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C16="","",_main3_day_4hour!C16)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D16="","",_main3_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E16="","",_main3_day_4hour!E16)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -5144,213 +5148,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -5394,7 +5398,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5429,8 +5433,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -5450,18 +5454,18 @@
         <v>35</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="52" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"19:00:00"</f>
+        <v>19:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -5479,8 +5483,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -5505,15 +5509,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -5548,18 +5552,18 @@
         <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -5567,11 +5571,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A19="","",INT(LEFT(_main1_day_4hour!A19,FIND("～",_main1_day_4hour!A19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A19,LEN(_main1_day_4hour!A19)-FIND("～",_main1_day_4hour!A19))))</f>
+        <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B19="","",INT(LEFT(_main1_day_4hour!B19,FIND("～",_main1_day_4hour!B19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B19,LEN(_main1_day_4hour!B19)-FIND("～",_main1_day_4hour!B19))))</f>
+        <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -5579,7 +5583,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D19="","",INT(LEFT(_main1_day_4hour!D19,FIND("～",_main1_day_4hour!D19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D19,LEN(_main1_day_4hour!D19)-FIND("～",_main1_day_4hour!D19))))</f>
+        <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -5594,18 +5598,18 @@
         <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H19="","",INT(LEFT(_main1_day_4hour!H19,FIND("～",_main1_day_4hour!H19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H19,LEN(_main1_day_4hour!H19)-FIND("～",_main1_day_4hour!H19))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I19="","",INT(LEFT(_main1_day_4hour!I19,FIND("～",_main1_day_4hour!I19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I19,LEN(_main1_day_4hour!I19)-FIND("～",_main1_day_4hour!I19))))</f>
+      <c r="J7" s="22" t="str">
+        <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -5616,128 +5620,128 @@
         <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!A18="","",_main2_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D20="","",INT(_main1_day_4hour!D20))</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="22" t="str">
+        <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!B18="","",_main2_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!D18="","",_main2_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E18="","",INT(LEFT(_main2_day_4hour!E18,FIND("～",_main2_day_4hour!E18)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E18,LEN(_main2_day_4hour!E18)-FIND("～",_main2_day_4hour!E18))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F18="","",INT(LEFT(_main2_day_4hour!F18,FIND("～",_main2_day_4hour!F18)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F18,LEN(_main2_day_4hour!F18)-FIND("～",_main2_day_4hour!F18))))</f>
+      <c r="J8" s="22" t="str">
+        <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -5759,135 +5763,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -5907,213 +5911,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -6192,8 +6196,8 @@
       <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
@@ -6213,18 +6217,18 @@
         <v>35</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="52" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
-      </c>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53" t="str">
+        <f>"23:00:00"</f>
+        <v>23:00:00</v>
+      </c>
+      <c r="K3" s="54"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
@@ -6242,8 +6246,8 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
@@ -6268,15 +6272,15 @@
       <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
@@ -6311,18 +6315,18 @@
         <f>IF(_main1_day_4hour!G22="","",_main1_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H22="","",_main1_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I22="","",_main1_day_4hour!I22)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
@@ -6330,11 +6334,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A23="","",INT(LEFT(_main1_day_4hour!A23,FIND("～",_main1_day_4hour!A23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A23,LEN(_main1_day_4hour!A23)-FIND("～",_main1_day_4hour!A23))))</f>
+        <f>IF(_main1_day_4hour!A23="","",_main1_day_4hour!A23)</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B23="","",INT(LEFT(_main1_day_4hour!B23,FIND("～",_main1_day_4hour!B23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B23,LEN(_main1_day_4hour!B23)-FIND("～",_main1_day_4hour!B23))))</f>
+        <f>IF(_main1_day_4hour!B23="","",_main1_day_4hour!B23)</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
@@ -6342,7 +6346,7 @@
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D23="","",INT(LEFT(_main1_day_4hour!D23,FIND("～",_main1_day_4hour!D23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D23,LEN(_main1_day_4hour!D23)-FIND("～",_main1_day_4hour!D23))))</f>
+        <f>IF(_main1_day_4hour!D23="","",_main1_day_4hour!D23)</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
@@ -6357,18 +6361,18 @@
         <f>IF(_main1_day_4hour!G23="","",_main1_day_4hour!G23)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H23="","",INT(LEFT(_main1_day_4hour!H23,FIND("～",_main1_day_4hour!H23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H23,LEN(_main1_day_4hour!H23)-FIND("～",_main1_day_4hour!H23))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I23="","",INT(LEFT(_main1_day_4hour!I23,FIND("～",_main1_day_4hour!I23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I23,LEN(_main1_day_4hour!I23)-FIND("～",_main1_day_4hour!I23))))</f>
+      <c r="J7" s="22" t="str">
+        <f>IF(_main1_day_4hour!H23="","",_main1_day_4hour!H23)</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(_main1_day_4hour!I23="","",_main1_day_4hour!I23)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A8" s="19"/>
@@ -6379,128 +6383,128 @@
         <f>IF(_main1_day_4hour!A24="","",_main1_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B24="","",_main1_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!A22="","",_main2_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D24="","",INT(_main1_day_4hour!D24))</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="22" t="str">
+        <f>IF(_main1_day_4hour!D24="","",_main1_day_4hour!D24)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!B22="","",_main2_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!D22="","",_main2_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E22="","",INT(LEFT(_main2_day_4hour!E22,FIND("～",_main2_day_4hour!E22)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E22,LEN(_main2_day_4hour!E22)-FIND("～",_main2_day_4hour!E22))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F22="","",INT(LEFT(_main2_day_4hour!F22,FIND("～",_main2_day_4hour!F22)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F22,LEN(_main2_day_4hour!F22)-FIND("～",_main2_day_4hour!F22))))</f>
+      <c r="J8" s="22" t="str">
+        <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A25="","",_main1_day_4hour!A25)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B25="","",_main1_day_4hour!B25)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C25="","",_main1_day_4hour!C25)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D25="","",_main1_day_4hour!D25)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E25="","",_main1_day_4hour!E25)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F25="","",_main1_day_4hour!F25)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G25="","",_main1_day_4hour!G25)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H25="","",_main1_day_4hour!H25)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I25="","",_main1_day_4hour!I25)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
@@ -6522,135 +6526,135 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A22="","",_main3_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B22="","",_main3_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C22="","",_main3_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D22="","",_main3_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E22="","",_main3_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A23="","",_main3_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B23="","",_main3_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C23="","",_main3_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D23="","",_main3_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E23="","",_main3_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A24="","",_main3_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B24="","",_main3_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C24="","",_main3_day_4hour!C24)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D24="","",_main3_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E24="","",_main3_day_4hour!E24)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
@@ -6670,213 +6674,213 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
       <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-六烧主要工艺参数及实物质量情况日报.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>六号烧结机主要工艺参数及实物质量情况</t>
   </si>
@@ -121,7 +121,7 @@
     <t>ST6_L1R_SIN_MI202_4h_avg</t>
   </si>
   <si>
-    <t>ST6_L1R_SIN_LI3031_4h_avg</t>
+    <t>ST6_L1R_SIN_LI3030_4h_avg</t>
   </si>
   <si>
     <t>ST6_L1R_SIN_PI367_4h_avg</t>
@@ -139,19 +139,10 @@
     <t>ST6_L1R_SIN_BtpTeN_4h_avg</t>
   </si>
   <si>
-    <t>ST6_MESR_SIN_SinterR_1m_cur</t>
-  </si>
-  <si>
-    <t>ST6_MESR_SIN_SinterTFe_1m_cur</t>
-  </si>
-  <si>
-    <t>ST6_MESR_SIN_SinterFeO_1m_cur</t>
-  </si>
-  <si>
-    <t>ST6_MESR_SIN_SinterMgAlRatio_1m_cur</t>
-  </si>
-  <si>
-    <t>ST6_MESR_SIN_SinterRDIH3p15_1m_cur</t>
+    <t>Mg/Al</t>
+  </si>
+  <si>
+    <t>RDI+3.15</t>
   </si>
   <si>
     <t>version</t>
@@ -162,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -206,8 +197,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +208,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,6 +220,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -237,7 +236,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,43 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -296,17 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,43 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -384,13 +375,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,25 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,37 +495,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,79 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,17 +707,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,22 +742,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,17 +796,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,148 +809,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,7 +1487,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G14"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2251,7 +2242,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2297,26 +2288,26 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="71.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>6</v>
